--- a/Playoffs.xlsx
+++ b/Playoffs.xlsx
@@ -793,6 +793,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,55 +823,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor rgb="FF92D050"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -882,14 +846,6 @@
         <patternFill patternType="lightHorizontal">
           <fgColor theme="0" tint="-0.24994659260841701"/>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -956,6 +912,50 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor rgb="FF92D050"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2272,7 +2272,7 @@
       <c r="L1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="29" t="s">
         <v>34</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -60532,34 +60532,34 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="A2:K751">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>$A3&lt;&gt;$A2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>OR(AND($A2&lt;1970,$B3&lt;&gt;$B2),AND($A2&gt;=1970,$C3&lt;&gt;$C2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G751">
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="5" priority="21">
       <formula>$K2="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>$J2="W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K751">
-    <cfRule type="expression" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>H2="bye"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="25">
+    <cfRule type="expression" dxfId="3" priority="25">
       <formula>H2="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="26">
+    <cfRule type="expression" dxfId="2" priority="26">
       <formula>H2="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:K751">
-    <cfRule type="expression" dxfId="5" priority="27">
+    <cfRule type="expression" dxfId="0" priority="27">
       <formula>OR(H2="L",G2="L",F2="L")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60595,30 +60595,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="32" t="str">
+      <c r="B1" s="33"/>
+      <c r="D1" s="33" t="str">
         <f>"Seasons "&amp;"("&amp;H5-H3+1&amp;")"</f>
         <v>Seasons (58)</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="H1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>127</v>
       </c>
       <c r="O1" s="26" t="s">
@@ -60630,25 +60630,25 @@
       <c r="Q1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
       <c r="W1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -60660,18 +60660,18 @@
       <c r="D2" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="32"/>
       <c r="H2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="26" t="s">
         <v>152</v>
       </c>
@@ -60700,11 +60700,11 @@
         <v>156</v>
       </c>
       <c r="X2" s="13"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -61939,11 +61939,11 @@
         <v>1</v>
       </c>
       <c r="X18" s="13"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -62018,11 +62018,11 @@
         <v>1</v>
       </c>
       <c r="X19" s="13"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -63513,14 +63513,14 @@
       <c r="C1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -66849,18 +66849,18 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:E76">
-    <cfRule type="expression" dxfId="0" priority="32">
+    <cfRule type="expression" dxfId="11" priority="32">
       <formula>$J2="Rams"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="8" priority="33">
       <formula>AND($A2&lt;&gt;"",$E2=$I2,$D2=$K2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G76">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$L2="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$L2="A"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Playoffs.xlsx
+++ b/Playoffs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wgkk.gkk.sv-services.at\Benutzer\p140536\Basis\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4847" uniqueCount="170">
   <si>
     <t>Season</t>
   </si>
@@ -387,9 +387,6 @@
     <t>library(tidyverse)</t>
   </si>
   <si>
-    <t>results %&gt;%</t>
-  </si>
-  <si>
     <t xml:space="preserve">  filter(Season &gt;= 1966, Week &gt; 30) %&gt;% # SB era post season</t>
   </si>
   <si>
@@ -411,13 +408,7 @@
     <t xml:space="preserve">  relocate(Pct, .after = L) %&gt;% </t>
   </si>
   <si>
-    <t xml:space="preserve">  View()</t>
-  </si>
-  <si>
     <t xml:space="preserve">            SB_win = sum(Week == 35 &amp; Result == "W")) %&gt;% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  arrange(desc(Score)) %&gt;% </t>
   </si>
   <si>
     <t>Seasons</t>
@@ -541,6 +532,21 @@
   </si>
   <si>
     <t>...   PO effic = PO appear/Seasons; PO endur = PO games/PO appear; PO success = SB appear/PO appear; SB success = SB win/SB appear</t>
+  </si>
+  <si>
+    <t>psdata &lt;- results %&gt;%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PO_games = n(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         PO_endur = PO_games / PO_app,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  arrange(desc(Score))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  View(psdata)</t>
   </si>
 </sst>
 </file>
@@ -832,6 +838,50 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor rgb="FF92D050"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="lightGray">
           <fgColor rgb="FF92D050"/>
@@ -876,50 +926,6 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor rgb="FF92D050"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2305,13 +2311,13 @@
         <v>99</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>6</v>
@@ -2456,13 +2462,13 @@
         <v>80</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AJ2" s="7" t="s">
         <v>111</v>
@@ -54121,7 +54127,7 @@
         <v>69</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H626" s="15" t="s">
         <v>55</v>
@@ -54414,7 +54420,7 @@
         <v>5</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G630" s="1" t="s">
         <v>32</v>
@@ -60614,7 +60620,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -60640,7 +60646,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" s="34"/>
       <c r="D1" s="34" t="str">
@@ -60650,7 +60656,7 @@
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="H1" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J1" s="35"/>
       <c r="K1" s="36" t="s">
@@ -60663,23 +60669,23 @@
         <v>80</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O1" s="26" t="s">
         <v>108</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S1" s="37"/>
       <c r="T1" s="37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U1" s="37"/>
       <c r="V1" s="37"/>
@@ -60687,7 +60693,7 @@
         <v>24</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Z1" s="34"/>
       <c r="AA1" s="34"/>
@@ -60696,20 +60702,20 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F2" s="33"/>
       <c r="H2" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J2" s="35"/>
       <c r="K2" s="36"/>
@@ -60717,31 +60723,31 @@
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
       <c r="O2" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="R2" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="S2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="T2" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>156</v>
-      </c>
       <c r="W2" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="34"/>
@@ -60828,7 +60834,7 @@
       </c>
       <c r="X3" s="13"/>
       <c r="Y3" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Z3" s="1">
         <f ca="1">COUNTIF(R:R,0)</f>
@@ -60853,7 +60859,7 @@
         <v>58</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J4" s="9">
         <v>2</v>
@@ -60912,7 +60918,7 @@
       </c>
       <c r="X4" s="13"/>
       <c r="Y4" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Z4" s="1">
         <f ca="1">COUNTIF(S:S,0)-Z3</f>
@@ -60997,7 +61003,7 @@
       </c>
       <c r="X5" s="13"/>
       <c r="Y5" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z5" s="1">
         <f ca="1">COUNTIF(S:S,1)</f>
@@ -61078,7 +61084,7 @@
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z6" s="1">
         <f ca="1">COUNTIF(S:S,"&gt;1")</f>
@@ -61612,13 +61618,13 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -61994,7 +62000,7 @@
         <v>112</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>53</v>
@@ -62898,7 +62904,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>16</v>
@@ -63199,7 +63205,7 @@
         <v>47</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -63225,113 +63231,129 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J39" s="19" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J40" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J41" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J42" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J43" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J44" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J45" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J46" s="19" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J47" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J48" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="19" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="19" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="19" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="19" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="19" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="19" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="19" t="s">
-        <v>124</v>
-      </c>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="19"/>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="19"/>
     </row>
   </sheetData>
   <sortState ref="A3:B37">
@@ -63352,7 +63374,7 @@
     <mergeCell ref="Y1:AC2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B52">
-    <cfRule type="expression" dxfId="3" priority="39">
+    <cfRule type="expression" dxfId="7" priority="39">
       <formula>$A3&lt;&gt;$B3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63371,7 +63393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:L34">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$K3="Rams"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63388,7 +63410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:W34">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$K3="Rams"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63503,7 +63525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K34">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>O3=$H$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63557,7 +63579,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>8</v>
@@ -66898,18 +66920,18 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:E76">
-    <cfRule type="expression" dxfId="7" priority="32">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>$J2="Rams"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="33">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND($A2&lt;&gt;"",$E2=$I2,$D2=$K2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G76">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$L2="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$L2="A"</formula>
     </cfRule>
   </conditionalFormatting>
